--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>003502</t>
-  </si>
-  <si>
-    <t>003503</t>
-  </si>
-  <si>
-    <t>金鹰鑫瑞灵活配置混合A</t>
-  </si>
-  <si>
-    <t>金鹰鑫瑞灵活配置混合C</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>26.98</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.0706</t>
-  </si>
-  <si>
-    <t>0.0410</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.34</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.34</v>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,489 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -566,6 +583,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +3212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300820-英杰电气.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>6.49</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.34</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -583,6 +600,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016981</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2458,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3004,7 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3212,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3572,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3704,7 +4345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
